--- a/data hujan vs air sungai (kastam vs Jambatan di raja).xlsx
+++ b/data hujan vs air sungai (kastam vs Jambatan di raja).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">time </t>
   </si>
@@ -32,7 +32,16 @@
     <t>Rainfall of the day (mm)</t>
   </si>
   <si>
-    <t xml:space="preserve">River level </t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>more than 7.2</t>
   </si>
 </sst>
 </file>
@@ -385,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1192D889-D1C4-445B-B745-78F2EDAB86AC}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,20 +405,18 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43066</v>
       </c>
@@ -417,7 +424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43067</v>
       </c>
@@ -425,7 +432,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43068</v>
       </c>
@@ -433,7 +440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43069</v>
       </c>
@@ -441,7 +448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43070</v>
       </c>
@@ -449,7 +456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43071</v>
       </c>
@@ -457,7 +464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43072</v>
       </c>
@@ -465,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43073</v>
       </c>
@@ -473,7 +480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43074</v>
       </c>
@@ -481,7 +488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43075</v>
       </c>
@@ -489,12 +496,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43076</v>
       </c>
       <c r="B12">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2.4</v>
+      </c>
+      <c r="F16">
+        <v>7.2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
